--- a/biology/Zoologie/Peter_Grubb_(zoologiste)/Peter_Grubb_(zoologiste).xlsx
+++ b/biology/Zoologie/Peter_Grubb_(zoologiste)/Peter_Grubb_(zoologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Grubb (né en 1942 à Ealing, mort le 23 décembre 2006 à Londres) est un zoologiste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père William Grubb est chercheur chimiste pour Imperial Chemical Industries puis professeur de sciences en Écosse. Sa mère Anne Sirutis est une institutrice de Lituanie. Sa petite sœur Katrina est une artiste.
 Après un baccalauréat universitaire ès sciences en zoologie de l'University College de Londres, il devient assistant de recherche à l'Institut Wellcome de physiologie comparative de la Zoological Society of London. Au début des années 1960, il va dans les îles écossaises de Saint-Kilda pendant trois ans et étudie le mouton de Soay pour sa thèse. Pour ce travail, il reçoit le prix Thomas Henry Huxley de la Zoological Society of London en 1968. La même année, il participe à une expédition de la Royal Society sur l'atoll d'Aldabra, où il effectue des recherches sur la tortue géante des Seychelles. Dans les années suivantes, il travaille comme chargé de cours à l'université du Ghana.
